--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2502.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2502.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.846843766291758</v>
+        <v>0.3044033944606781</v>
       </c>
       <c r="B1">
-        <v>4.577850087376199</v>
+        <v>1.807124733924866</v>
       </c>
       <c r="C1">
-        <v>2.90525648406934</v>
+        <v>3.61018443107605</v>
       </c>
       <c r="D1">
-        <v>2.699770454090119</v>
+        <v>3.397135257720947</v>
       </c>
       <c r="E1">
-        <v>3.523618891948862</v>
+        <v>0.829828143119812</v>
       </c>
     </row>
   </sheetData>
